--- a/src/java/resources/excel_input_templates/Journal_Entry.xlsx
+++ b/src/java/resources/excel_input_templates/Journal_Entry.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Entry-1" sheetId="9" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2541,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
